--- a/3D_Morphometry.xlsx
+++ b/3D_Morphometry.xlsx
@@ -1,98 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Quantification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Quantification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914B1CC-B82F-4791-87F4-6BB5E851A6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D1752-8EF5-438D-997D-55EBDC1D40FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="-110" windowWidth="20330" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="4335" windowWidth="20910" windowHeight="11835" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl_Sphericity" sheetId="3" r:id="rId1"/>
     <sheet name="Chl_Volume" sheetId="4" r:id="rId2"/>
     <sheet name="Nuc_Volume" sheetId="5" r:id="rId3"/>
     <sheet name="Plots" sheetId="6" r:id="rId4"/>
-    <sheet name="Imaris" sheetId="1" r:id="rId5"/>
+    <sheet name="Chl_Sphericity_con" sheetId="7" r:id="rId5"/>
+    <sheet name="Chl_Volume_con" sheetId="8" r:id="rId6"/>
+    <sheet name="Nuc_Vol_con" sheetId="9" r:id="rId7"/>
+    <sheet name="Imaris" sheetId="1" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Nuc_Volume!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Nuc_Volume!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Nuc_Volume!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Nuc_Volume!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Nuc_Volume!$G$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Nuc_Volume!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Nuc_Volume!$H$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Nuc_Volume!$H$2:$H$61</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Chl_Sphericity!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Chl_Sphericity!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Chl_Sphericity!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Chl_Sphericity!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Nuc_Volume!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Chl_Sphericity!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Chl_Sphericity!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Chl_Sphericity!$D$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Chl_Sphericity!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Chl_Sphericity!$E$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Chl_Sphericity!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Chl_Sphericity!$F$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Chl_Sphericity!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Chl_Sphericity!$G$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Chl_Sphericity!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Nuc_Volume!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Chl_Sphericity!$H$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Chl_Sphericity!$H$2:$H$61</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Chl_Volume!$A$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Chl_Volume!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Chl_Volume!$B$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Chl_Volume!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Chl_Volume!$C$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Chl_Volume!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Chl_Volume!$D$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Chl_Volume!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Nuc_Volume!$C$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Chl_Volume!$E$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Chl_Volume!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Chl_Volume!$F$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Chl_Volume!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Chl_Volume!$G$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Chl_Volume!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Chl_Volume!$H$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Chl_Volume!$H$2:$H$61</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Nuc_Volume!$A$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Nuc_Volume!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Nuc_Volume!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Nuc_Volume!$B$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Nuc_Volume!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Nuc_Volume!$C$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Nuc_Volume!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Nuc_Volume!$D$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Nuc_Volume!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Nuc_Volume!$E$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Nuc_Volume!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Nuc_Volume!$F$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Nuc_Volume!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Nuc_Volume!$D$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Nuc_Volume!$G$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Nuc_Volume!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Nuc_Volume!$H$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Nuc_Volume!$H$2:$H$61</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Imaris!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Imaris!$E$4:$E$18</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Imaris!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Imaris!$C$4:$C$18</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Imaris!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Imaris!$G$4:$G$18</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Nuc_Volume!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Nuc_Volume!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Nuc_Volume!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Chl_Sphericity!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Chl_Sphericity!$A$2:$A$61</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Chl_Sphericity!$F$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Chl_Sphericity!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Chl_Sphericity!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Chl_Sphericity!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Chl_Sphericity!$H$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Chl_Sphericity!$H$2:$H$61</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Chl_Volume!$A$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Chl_Volume!$A$2:$A$61</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Chl_Volume!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Chl_Volume!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Chl_Sphericity!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Chl_Volume!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Chl_Volume!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Chl_Volume!$D$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Chl_Volume!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Chl_Volume!$E$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Chl_Volume!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Chl_Volume!$F$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Chl_Volume!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Chl_Volume!$G$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Chl_Volume!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Chl_Sphericity!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Chl_Volume!$H$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Chl_Volume!$H$2:$H$61</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Nuc_Volume!$A$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Nuc_Volume!$A$2:$A$61</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Nuc_Volume!$B$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Nuc_Volume!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Nuc_Volume!$C$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Nuc_Volume!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Nuc_Volume!$D$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Nuc_Volume!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Chl_Sphericity!$C$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Nuc_Volume!$E$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Nuc_Volume!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Nuc_Volume!$F$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Nuc_Volume!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Nuc_Volume!$G$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Nuc_Volume!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Nuc_Volume!$H$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Nuc_Volume!$H$2:$H$61</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Imaris!$A$4:$A$18</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Imaris!$E$4:$E$18</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Chl_Sphericity!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Imaris!$A$4:$A$18</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Imaris!$C$4:$C$18</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Imaris!$A$4:$A$18</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Imaris!$G$4:$G$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Chl_Sphericity!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Chl_Sphericity!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Chl_Sphericity!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Chl_Sphericity!$E$2:$E$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>t</t>
   </si>
@@ -405,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,6 +437,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,13 +452,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,42 +483,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -571,7 +556,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C77844D3-CA42-4C56-9BB1-3FFAE8BD6832}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>0h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -584,7 +569,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{010974C5-6C5B-4409-AA4A-8D25F8E49581}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>20h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -597,7 +582,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D1E0F09A-21EE-4024-8C22-67E25C7C7D29}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>26h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -610,7 +595,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EF126365-EEA3-4F4D-BFCE-A041F17ABFEE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>44h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -623,7 +608,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D066C3E4-EBD3-4F04-8664-AAC9DC2CB140}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>50h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -636,7 +621,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F7B44B01-F5B3-4268-A1EB-2738F8F54097}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>68h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -649,7 +634,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2682DFB7-A0E7-4B32-A039-27C89E286BDD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>74h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -662,7 +647,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{456A2FD6-55F6-4840-9F53-64DC394F508B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>92h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -748,6 +733,200 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chloroplast Volume</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Chloroplast Volume</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{901AE444-0F55-442F-87B8-A254C1445578}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>0h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{168065EA-D862-47DF-9DAD-368F52631DFF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>20h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{24638213-4C37-4307-ADC9-2C8338E04922}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>26h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7ACEAD35-469D-4D93-A68D-63D6DEA0AF4B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>44h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5C11ED83-2E68-4664-B4F8-AFDFF5E3AE14}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>50h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{12B846C7-4554-4419-B9D5-C8BC979600C5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>68h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4B0C7232-65FE-4966-A56D-7C630B03711F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>74h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4CA7DB82-85CF-4A59-B4C0-F88371A12C93}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>92h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="7"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="2000"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
@@ -791,200 +970,6 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Chloroplast Volume</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Chloroplast Volume</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{901AE444-0F55-442F-87B8-A254C1445578}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
-              <cx:v>0h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{168065EA-D862-47DF-9DAD-368F52631DFF}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
-              <cx:v>20h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{24638213-4C37-4307-ADC9-2C8338E04922}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>26h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7ACEAD35-469D-4D93-A68D-63D6DEA0AF4B}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>44h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5C11ED83-2E68-4664-B4F8-AFDFF5E3AE14}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
-              <cx:v>50h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{12B846C7-4554-4419-B9D5-C8BC979600C5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
-              <cx:v>68h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="5"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4B0C7232-65FE-4966-A56D-7C630B03711F}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>74h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="6"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4CA7DB82-85CF-4A59-B4C0-F88371A12C93}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>92h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="7"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="2000"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="7">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
           <cx:v>Nuclei Volume</cx:v>
         </cx:txData>
       </cx:tx>
@@ -1015,7 +1000,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E616DDC2-13EC-4674-B46E-69B232CC8714}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>0h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1028,7 +1013,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{75E45D5B-B7B7-48BA-99FD-A4455D079D65}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>20h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1041,7 +1026,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FB468DC5-EC7F-412E-B2D0-CFFA1BAF1ED3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>26h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1054,7 +1039,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1F4B261A-4E62-424C-94B1-E74907A0FE7C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>44h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1067,7 +1052,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7D6CBB73-0E67-4880-A9C9-BA245A878396}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>50h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1080,7 +1065,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{85BE3464-5DB7-4E0F-B927-19B2EDA74A39}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>68h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1093,7 +1078,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FA8A4AB3-A5D1-4A73-B55C-EFEB06DBDA73}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>74h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1106,7 +1091,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5086587A-9845-4F72-8D84-CD2322F91A09}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>92h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1136,10 +1121,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.68</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1220,10 +1205,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1303,10 +1288,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4648,7 +4633,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="4572000" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4667,9 +4652,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4725,8 +4710,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="38100" y="2800350"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="38100" y="2895600"/>
+              <a:ext cx="4572000" cy="2838450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4745,9 +4730,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4803,8 +4788,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4664528" y="1190172"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4664528" y="1228272"/>
+              <a:ext cx="4572000" cy="2838450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4823,9 +4808,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4886,8 +4871,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6934200" y="781050"/>
-              <a:ext cx="2428875" cy="3400426"/>
+              <a:off x="6619875" y="809625"/>
+              <a:ext cx="2314575" cy="3514726"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4906,9 +4891,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -4964,8 +4949,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9582150" y="781050"/>
-              <a:ext cx="2428875" cy="3400426"/>
+              <a:off x="9153525" y="809625"/>
+              <a:ext cx="2314575" cy="3514726"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4984,9 +4969,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5042,8 +5027,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12287250" y="866775"/>
-              <a:ext cx="2428875" cy="3394076"/>
+              <a:off x="11744325" y="895350"/>
+              <a:ext cx="2314575" cy="3514726"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5062,9 +5047,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5074,19 +5059,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5358,38 +5330,38 @@
       <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.90625" style="17"/>
+    <col min="1" max="8" width="10.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>0.32800000000000001</v>
       </c>
@@ -5415,7 +5387,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>0.32119999999999999</v>
       </c>
@@ -5441,7 +5413,7 @@
         <v>0.51800000000000013</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>0.38650000000000001</v>
       </c>
@@ -5467,7 +5439,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>0.33350000000000002</v>
       </c>
@@ -5489,7 +5461,7 @@
       </c>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>0.32524999999999993</v>
       </c>
@@ -5515,7 +5487,7 @@
         <v>0.49466666666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>0.34475</v>
       </c>
@@ -5541,7 +5513,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>0.34259999999999996</v>
       </c>
@@ -5563,7 +5535,7 @@
         <v>0.50149999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>0.26266666666666666</v>
       </c>
@@ -5589,7 +5561,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>0.20200000000000001</v>
       </c>
@@ -5615,7 +5587,7 @@
         <v>0.4592222222222222</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>0.35825000000000001</v>
       </c>
@@ -5641,7 +5613,7 @@
         <v>0.48933333333333334</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>0.48699999999999993</v>
       </c>
@@ -5667,7 +5639,7 @@
         <v>0.54659999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>0.34466666666666668</v>
       </c>
@@ -5693,7 +5665,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>0.30216666666666664</v>
       </c>
@@ -5719,7 +5691,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>0.27024999999999999</v>
       </c>
@@ -5745,7 +5717,7 @@
         <v>0.40533333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>0.27499999999999997</v>
       </c>
@@ -5771,7 +5743,7 @@
         <v>0.49724999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>0.31824999999999998</v>
       </c>
@@ -5797,7 +5769,7 @@
         <v>0.49149999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>0.3611428571428571</v>
       </c>
@@ -5821,7 +5793,7 @@
         <v>0.40700000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>0.33920000000000006</v>
       </c>
@@ -5845,7 +5817,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>0.31188888888888894</v>
       </c>
@@ -5869,7 +5841,7 @@
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>0.25766666666666665</v>
       </c>
@@ -5895,7 +5867,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>0.35633333333333334</v>
       </c>
@@ -5921,7 +5893,7 @@
         <v>0.40033333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>0.31533333333333335</v>
       </c>
@@ -5947,7 +5919,7 @@
         <v>0.46766666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>0.24299999999999999</v>
       </c>
@@ -5971,7 +5943,7 @@
       </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>0.34420000000000001</v>
       </c>
@@ -5993,7 +5965,7 @@
         <v>0.52560000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>0.27866666666666667</v>
       </c>
@@ -6015,7 +5987,7 @@
       </c>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>0.34299999999999997</v>
       </c>
@@ -6041,7 +6013,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>0.33600000000000002</v>
       </c>
@@ -6065,7 +6037,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>0.33700000000000002</v>
       </c>
@@ -6091,7 +6063,7 @@
         <v>0.44359999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>0.34820000000000001</v>
       </c>
@@ -6115,7 +6087,7 @@
         <v>0.50239999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>0.37916666666666671</v>
       </c>
@@ -6141,7 +6113,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>0.33916666666666667</v>
       </c>
@@ -6164,7 +6136,7 @@
         <v>0.51249999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>0.39799999999999996</v>
       </c>
@@ -6190,7 +6162,7 @@
         <v>0.47450000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>0.38911111111111113</v>
       </c>
@@ -6212,7 +6184,7 @@
         <v>0.50180000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>0.33571428571428574</v>
       </c>
@@ -6238,7 +6210,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>0.35428571428571437</v>
       </c>
@@ -6264,7 +6236,7 @@
         <v>0.55249999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>0.37766666666666665</v>
       </c>
@@ -6290,7 +6262,7 @@
         <v>0.47339999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>0.35825000000000001</v>
       </c>
@@ -6316,7 +6288,7 @@
         <v>0.43149999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>0.29675000000000001</v>
       </c>
@@ -6342,7 +6314,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>0.32666666666666666</v>
       </c>
@@ -6368,7 +6340,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>0.33274999999999999</v>
       </c>
@@ -6394,7 +6366,7 @@
         <v>0.39737500000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>0.3412857142857143</v>
       </c>
@@ -6418,7 +6390,7 @@
         <v>0.48049999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>0.37233333333333335</v>
       </c>
@@ -6442,7 +6414,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>0.32716666666666666</v>
       </c>
@@ -6466,7 +6438,7 @@
         <v>0.53350000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>0.29549999999999998</v>
       </c>
@@ -6492,7 +6464,7 @@
         <v>0.48719999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>0.29249999999999998</v>
       </c>
@@ -6513,7 +6485,7 @@
         <v>0.488375</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>0.37760000000000005</v>
       </c>
@@ -6536,7 +6508,7 @@
         <v>0.47625000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>0.32966666666666666</v>
       </c>
@@ -6554,7 +6526,7 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>0.31466666666666665</v>
       </c>
@@ -6569,7 +6541,7 @@
         <v>0.47333333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>0.33499999999999996</v>
       </c>
@@ -6586,7 +6558,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>0.36766666666666664</v>
       </c>
@@ -6600,7 +6572,7 @@
         <v>0.46000000000000013</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>0.36966666666666664</v>
       </c>
@@ -6609,7 +6581,7 @@
       </c>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E53" s="18">
         <v>0.39400000000000002</v>
       </c>
@@ -6617,7 +6589,7 @@
         <v>0.39324999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E54" s="18">
         <v>0.41349999999999998</v>
       </c>
@@ -6625,35 +6597,35 @@
         <v>0.52539999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G56" s="18">
         <v>0.49933333333333341</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G57" s="18">
         <v>0.49266666666666664</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G58" s="18">
         <v>0.41133333333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G59" s="18">
         <v>0.48300000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G60" s="18">
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G61" s="18">
         <v>0.48675000000000002</v>
       </c>
@@ -6673,38 +6645,38 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.90625" style="19"/>
+    <col min="1" max="8" width="10.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>571.46299999999997</v>
       </c>
@@ -6730,7 +6702,7 @@
         <v>260.137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1232.396</v>
       </c>
@@ -6756,7 +6728,7 @@
         <v>125.38200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>986.71799999999996</v>
       </c>
@@ -6782,7 +6754,7 @@
         <v>99.836000000000013</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>635.10800000000006</v>
       </c>
@@ -6804,7 +6776,7 @@
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>804.48500000000001</v>
       </c>
@@ -6830,7 +6802,7 @@
         <v>237.262</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>741.87799999999993</v>
       </c>
@@ -6856,7 +6828,7 @@
         <v>145.99100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>876.22199999999998</v>
       </c>
@@ -6878,7 +6850,7 @@
         <v>282.56300000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1032.374</v>
       </c>
@@ -6902,7 +6874,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>1139.4770000000001</v>
       </c>
@@ -6928,7 +6900,7 @@
         <v>531.846</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>721.30500000000006</v>
       </c>
@@ -6954,7 +6926,7 @@
         <v>367.82700000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>602.09799999999996</v>
       </c>
@@ -6980,7 +6952,7 @@
         <v>226.96199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>458.899</v>
       </c>
@@ -7004,7 +6976,7 @@
         <v>185.71899999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>1241.0640000000001</v>
       </c>
@@ -7030,7 +7002,7 @@
         <v>225.33699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>1471.4680000000001</v>
       </c>
@@ -7056,7 +7028,7 @@
         <v>306.88400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>1246.4940000000001</v>
       </c>
@@ -7079,7 +7051,7 @@
         <v>145.01900000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>994.20600000000002</v>
       </c>
@@ -7105,7 +7077,7 @@
         <v>149.10399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>887.34999999999991</v>
       </c>
@@ -7129,7 +7101,7 @@
         <v>126.06100000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>928.23500000000001</v>
       </c>
@@ -7153,7 +7125,7 @@
         <v>100.76300000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>1602.8580000000002</v>
       </c>
@@ -7177,7 +7149,7 @@
       </c>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>1077.54</v>
       </c>
@@ -7203,7 +7175,7 @@
         <v>529.68499999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>726.72499999999991</v>
       </c>
@@ -7229,7 +7201,7 @@
         <v>218.25700000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>713.03600000000006</v>
       </c>
@@ -7255,7 +7227,7 @@
         <v>353.72699999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>792.63300000000004</v>
       </c>
@@ -7279,7 +7251,7 @@
       </c>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>909.18100000000004</v>
       </c>
@@ -7301,7 +7273,7 @@
         <v>242.47300000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>1218.626</v>
       </c>
@@ -7323,7 +7295,7 @@
       </c>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>863.44399999999996</v>
       </c>
@@ -7349,7 +7321,7 @@
         <v>336.42199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>632.72</v>
       </c>
@@ -7373,7 +7345,7 @@
         <v>82.942999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>1193.981</v>
       </c>
@@ -7399,7 +7371,7 @@
         <v>680.38</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>828.10600000000011</v>
       </c>
@@ -7423,7 +7395,7 @@
         <v>231.166</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>779.63800000000003</v>
       </c>
@@ -7449,7 +7421,7 @@
         <v>79.287000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>985.31500000000005</v>
       </c>
@@ -7475,7 +7447,7 @@
         <v>336.49400000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>329.84100000000001</v>
       </c>
@@ -7501,7 +7473,7 @@
         <v>119.366</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>811.57900000000018</v>
       </c>
@@ -7523,7 +7495,7 @@
         <v>313.55899999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>1325.7429999999999</v>
       </c>
@@ -7549,7 +7521,7 @@
         <v>73.23</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>895.83399999999995</v>
       </c>
@@ -7575,7 +7547,7 @@
         <v>72.067000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>769.68499999999995</v>
       </c>
@@ -7601,7 +7573,7 @@
         <v>617.38599999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>1069.326</v>
       </c>
@@ -7627,7 +7599,7 @@
         <v>136.613</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>926.16699999999992</v>
       </c>
@@ -7653,7 +7625,7 @@
         <v>48.277999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>637.96</v>
       </c>
@@ -7679,7 +7651,7 @@
         <v>62.115000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>902.28800000000001</v>
       </c>
@@ -7705,7 +7677,7 @@
         <v>366.78800000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>1021.663</v>
       </c>
@@ -7729,7 +7701,7 @@
         <v>179.935</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>829.81299999999999</v>
       </c>
@@ -7753,7 +7725,7 @@
         <v>42.430999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>829.37399999999991</v>
       </c>
@@ -7777,7 +7749,7 @@
         <v>89.97399999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>1065.0650000000001</v>
       </c>
@@ -7803,7 +7775,7 @@
         <v>247.25600000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>824.25199999999995</v>
       </c>
@@ -7824,7 +7796,7 @@
         <v>376.17500000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>614.76700000000005</v>
       </c>
@@ -7847,7 +7819,7 @@
         <v>213.154</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>476.072</v>
       </c>
@@ -7865,7 +7837,7 @@
       </c>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>812.31</v>
       </c>
@@ -7880,7 +7852,7 @@
         <v>149.55500000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>790.27299999999991</v>
       </c>
@@ -7897,7 +7869,7 @@
         <v>184.60900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>773.24400000000003</v>
       </c>
@@ -7911,7 +7883,7 @@
         <v>290.53500000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>696.04499999999996</v>
       </c>
@@ -7920,7 +7892,7 @@
       </c>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E53" s="20">
         <v>125.532</v>
       </c>
@@ -7928,7 +7900,7 @@
         <v>193.50700000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E54" s="20">
         <v>770.80899999999997</v>
       </c>
@@ -7936,35 +7908,35 @@
         <v>236.42899999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G56" s="20">
         <v>174.107</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G57" s="20">
         <v>444.334</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G58" s="20">
         <v>207.62300000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G59" s="20">
         <v>242.35199999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G60" s="20">
         <v>321.154</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G61" s="20">
         <v>266.96699999999998</v>
       </c>
@@ -7978,42 +7950,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C45B6F7-27EC-4945-A3D9-A727439DFC0B}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.90625" style="19"/>
+    <col min="1" max="8" width="10.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>51.892000000000003</v>
       </c>
@@ -8039,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>71.266000000000005</v>
       </c>
@@ -8065,7 +8037,7 @@
         <v>23.061</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>72.757000000000005</v>
       </c>
@@ -8091,7 +8063,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>53.042999999999999</v>
       </c>
@@ -8113,7 +8085,7 @@
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>67.968999999999994</v>
       </c>
@@ -8139,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>45.411000000000001</v>
       </c>
@@ -8165,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>61.805</v>
       </c>
@@ -8187,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>82.528000000000006</v>
       </c>
@@ -8211,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>84.394000000000005</v>
       </c>
@@ -8237,7 +8209,7 @@
         <v>44.637</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>70.611000000000004</v>
       </c>
@@ -8263,7 +8235,7 @@
         <v>12.513999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>352.21600000000001</v>
       </c>
@@ -8289,7 +8261,7 @@
         <v>7.4459999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>48.173000000000002</v>
       </c>
@@ -8312,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>72.061999999999998</v>
       </c>
@@ -8338,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>84.331999999999994</v>
       </c>
@@ -8364,7 +8336,7 @@
         <v>15.297000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>400.37</v>
       </c>
@@ -8390,7 +8362,7 @@
         <v>18.811</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>94.096999999999994</v>
       </c>
@@ -8414,7 +8386,7 @@
       </c>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>110.75</v>
       </c>
@@ -8438,7 +8410,7 @@
         <v>28.539000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>220.286</v>
       </c>
@@ -8462,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>351.47899999999998</v>
       </c>
@@ -8486,7 +8458,7 @@
       </c>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>43.848999999999997</v>
       </c>
@@ -8512,7 +8484,7 @@
         <v>287.80599999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>56.534999999999997</v>
       </c>
@@ -8538,7 +8510,7 @@
         <v>53.177999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>70.73</v>
       </c>
@@ -8564,7 +8536,7 @@
         <v>87.876999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>52.459000000000003</v>
       </c>
@@ -8588,7 +8560,7 @@
       </c>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>69.400999999999996</v>
       </c>
@@ -8610,7 +8582,7 @@
         <v>79.753</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>45.902999999999999</v>
       </c>
@@ -8632,7 +8604,7 @@
       </c>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>77.058000000000007</v>
       </c>
@@ -8658,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>75.58</v>
       </c>
@@ -8682,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>76.947999999999993</v>
       </c>
@@ -8708,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>70.271000000000001</v>
       </c>
@@ -8732,7 +8704,7 @@
         <v>12.472</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>82.331999999999994</v>
       </c>
@@ -8758,7 +8730,7 @@
         <v>48.968000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>57.219000000000001</v>
       </c>
@@ -8781,7 +8753,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>17.672000000000001</v>
       </c>
@@ -8807,7 +8779,7 @@
         <v>16.454999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>84.911000000000001</v>
       </c>
@@ -8829,7 +8801,7 @@
         <v>22.832999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>83.22</v>
       </c>
@@ -8853,7 +8825,7 @@
         <v>20.234999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>83.888000000000005</v>
       </c>
@@ -8879,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>81.063999999999993</v>
       </c>
@@ -8905,7 +8877,7 @@
         <v>53.09</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>85.245000000000005</v>
       </c>
@@ -8931,7 +8903,7 @@
         <v>20.574999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>82.573999999999998</v>
       </c>
@@ -8957,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>73.622</v>
       </c>
@@ -8983,7 +8955,7 @@
         <v>14.154999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>63.177</v>
       </c>
@@ -9009,7 +8981,7 @@
         <v>17.943999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>126.133</v>
       </c>
@@ -9033,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>64.003</v>
       </c>
@@ -9055,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>66.335999999999999</v>
       </c>
@@ -9079,7 +9051,7 @@
         <v>49.838000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>997.66499999999996</v>
       </c>
@@ -9105,7 +9077,7 @@
         <v>47.311999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>70.909000000000006</v>
       </c>
@@ -9126,7 +9098,7 @@
         <v>6.7960000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>218.08199999999999</v>
       </c>
@@ -9149,7 +9121,7 @@
         <v>17.077999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>65.718999999999994</v>
       </c>
@@ -9167,7 +9139,7 @@
       </c>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>527.63499999999999</v>
       </c>
@@ -9182,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>214.61600000000001</v>
       </c>
@@ -9199,7 +9171,7 @@
         <v>24.898</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>58.904000000000003</v>
       </c>
@@ -9213,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>85.840999999999994</v>
       </c>
@@ -9222,7 +9194,7 @@
       </c>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E53" s="20">
         <v>123.974</v>
       </c>
@@ -9230,7 +9202,7 @@
         <v>91.135999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E54" s="20">
         <v>82.602999999999994</v>
       </c>
@@ -9238,35 +9210,35 @@
         <v>28.492999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G56" s="20">
         <v>16.521000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G57" s="20">
         <v>149.12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G58" s="20">
         <v>62.451000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G59" s="20">
         <v>47.143000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G60" s="20">
         <v>110.318</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G61" s="20">
         <v>54.613</v>
       </c>
@@ -9284,7 +9256,7 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9292,6 +9264,1756 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585E7C20-ED98-4D1C-8695-0413ADCB77B0}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>0.37599999999999995</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0.442</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0.45680000000000004</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26">
+        <v>0.28033333333333338</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0.36966666666666664</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0.39980000000000004</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0.34425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="26">
+        <v>0.33185714285714285</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26">
+        <v>0.41180000000000005</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>0.30060000000000003</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0.30333333333333334</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26">
+        <v>0.34800000000000003</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.185</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.37625000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.42871428571428577</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.38224999999999998</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.26333333333333336</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.3478</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.41333333333333339</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.2475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.37849999999999995</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.36483333333333334</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.35533333333333333</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.21500000000000002</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.33916666666666667</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.37019999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>0.34225</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.40020000000000006</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.36</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.35966666666666663</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.35020000000000001</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.32533333333333331</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0.29360000000000003</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.39199999999999996</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.29933333333333328</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.46479999999999999</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.36733333333333329</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.32866666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>0.40024999999999999</v>
+      </c>
+      <c r="B9" s="26">
+        <v>0.37557142857142856</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.28900000000000003</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.39425000000000004</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.217</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.28500000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0.41325000000000001</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.41271428571428576</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.42657142857142855</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.27399999999999997</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.3136666666666667</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.49625000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="B11" s="26">
+        <v>0.40520000000000006</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.28166666666666668</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.32728571428571435</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.37516666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>0.3518</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.34516666666666662</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.35275000000000001</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26">
+        <v>0.34133333333333332</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.26866666666666666</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.31320000000000003</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="B13" s="26">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.29183333333333333</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0.29574999999999996</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.38849999999999996</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.30133333333333334</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="B14" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.38075000000000003</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.308</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0.34975000000000001</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0.43925000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>0.29600000000000004</v>
+      </c>
+      <c r="B15" s="26">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.41450000000000004</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26">
+        <v>0.33899999999999997</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.32871428571428574</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.37474999999999997</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0.33849999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>0.34750000000000003</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.36783333333333329</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0.3816666666666666</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.36225000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>0.316</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.34975000000000001</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
+        <v>0.31233333333333335</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.41225000000000001</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0.37929999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>0.3105</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.35487500000000005</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26">
+        <v>0.35550000000000004</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.46900000000000003</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0.38920000000000005</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0.39425000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>0.39366666666666666</v>
+      </c>
+      <c r="B19" s="26">
+        <v>0.35924999999999996</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.31824999999999998</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26">
+        <v>0.39774999999999999</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0.42275000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="B20" s="26">
+        <v>0.32966666666666666</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.41514285714285715</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26">
+        <v>0.42200000000000004</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.39980000000000004</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0.41114285714285714</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0.39199999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>0.39799999999999996</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.39859999999999995</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0.376</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0.38299999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>0.40399999999999997</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.33440000000000003</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0.35175000000000001</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0.2475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>0.32733333333333331</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0.30249999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>0.31379999999999997</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0.39433333333333342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.3765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>0.34328571428571431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB3D12-36E3-42CD-8EAE-CFE1BE8C67FE}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>671.9</v>
+      </c>
+      <c r="B2" s="26">
+        <v>121.239</v>
+      </c>
+      <c r="C2" s="26">
+        <v>709.53500000000008</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26">
+        <v>1324.8400000000001</v>
+      </c>
+      <c r="F2" s="26">
+        <v>970.01</v>
+      </c>
+      <c r="G2" s="26">
+        <v>1365.2359999999999</v>
+      </c>
+      <c r="H2" s="26">
+        <v>1230.5719999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="26">
+        <v>695.83499999999992</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1084.6390000000001</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26">
+        <v>642.93200000000002</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1177.355</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26">
+        <v>828.99599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>1100.1220000000001</v>
+      </c>
+      <c r="B4" s="26">
+        <v>745.53300000000002</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1265.02</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26">
+        <v>1061.192</v>
+      </c>
+      <c r="F4" s="26">
+        <v>892.94900000000007</v>
+      </c>
+      <c r="G4" s="26">
+        <v>876.10400000000004</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1826.0920000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>1093.317</v>
+      </c>
+      <c r="B5" s="26">
+        <v>613.62699999999995</v>
+      </c>
+      <c r="C5" s="26">
+        <v>635.10500000000002</v>
+      </c>
+      <c r="D5" s="26">
+        <v>994.17700000000002</v>
+      </c>
+      <c r="E5" s="26">
+        <v>601.61400000000003</v>
+      </c>
+      <c r="F5" s="26">
+        <v>625.02099999999996</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1006.604</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1486.4690000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>466.14500000000004</v>
+      </c>
+      <c r="B6" s="26">
+        <v>594.97699999999998</v>
+      </c>
+      <c r="C6" s="26">
+        <v>603.54999999999995</v>
+      </c>
+      <c r="D6" s="26">
+        <v>492.63600000000002</v>
+      </c>
+      <c r="E6" s="26">
+        <v>741.94900000000007</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1018.8990000000001</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1228.6400000000001</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2099.4780000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>570.4559999999999</v>
+      </c>
+      <c r="B7" s="26">
+        <v>643.80700000000002</v>
+      </c>
+      <c r="C7" s="26">
+        <v>745.47</v>
+      </c>
+      <c r="D7" s="26">
+        <v>455.62099999999998</v>
+      </c>
+      <c r="E7" s="26">
+        <v>886.83400000000006</v>
+      </c>
+      <c r="F7" s="26">
+        <v>593.87</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1062.616</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1158.7760000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>301.74400000000003</v>
+      </c>
+      <c r="B8" s="26">
+        <v>818.73500000000001</v>
+      </c>
+      <c r="C8" s="26">
+        <v>719.59299999999996</v>
+      </c>
+      <c r="D8" s="26">
+        <v>477.80799999999999</v>
+      </c>
+      <c r="E8" s="26">
+        <v>537.44499999999994</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1094.748</v>
+      </c>
+      <c r="G8" s="26">
+        <v>908.31200000000001</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1426.6609999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>359.33800000000002</v>
+      </c>
+      <c r="B9" s="26">
+        <v>638.89300000000003</v>
+      </c>
+      <c r="C9" s="26">
+        <v>604.99900000000002</v>
+      </c>
+      <c r="D9" s="26">
+        <v>531.69900000000007</v>
+      </c>
+      <c r="E9" s="26">
+        <v>498.28900000000004</v>
+      </c>
+      <c r="F9" s="26">
+        <v>543.59100000000001</v>
+      </c>
+      <c r="G9" s="26">
+        <v>845.50699999999995</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1054.806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>651.62400000000002</v>
+      </c>
+      <c r="B10" s="26">
+        <v>304.14800000000002</v>
+      </c>
+      <c r="C10" s="26">
+        <v>968.92400000000009</v>
+      </c>
+      <c r="D10" s="26">
+        <v>347.35199999999998</v>
+      </c>
+      <c r="E10" s="26">
+        <v>961.78000000000009</v>
+      </c>
+      <c r="F10" s="26">
+        <v>848.78700000000003</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1368.203</v>
+      </c>
+      <c r="H10" s="26">
+        <v>362.06200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>632.12900000000002</v>
+      </c>
+      <c r="B11" s="26">
+        <v>707.29399999999998</v>
+      </c>
+      <c r="C11" s="26">
+        <v>293.06700000000001</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26">
+        <v>557.33299999999997</v>
+      </c>
+      <c r="F11" s="26">
+        <v>723.48699999999997</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1454.2900000000002</v>
+      </c>
+      <c r="H11" s="26">
+        <v>673.279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>722.56599999999992</v>
+      </c>
+      <c r="B12" s="26">
+        <v>522.76800000000003</v>
+      </c>
+      <c r="C12" s="26">
+        <v>566.60299999999995</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26">
+        <v>570.87599999999998</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1322.7370000000001</v>
+      </c>
+      <c r="G12" s="26">
+        <v>825.80099999999993</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1071.8620000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>719.95400000000006</v>
+      </c>
+      <c r="B13" s="26">
+        <v>951.29499999999996</v>
+      </c>
+      <c r="C13" s="26">
+        <v>683.26400000000001</v>
+      </c>
+      <c r="D13" s="26">
+        <v>303.39</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1090.277</v>
+      </c>
+      <c r="F13" s="26">
+        <v>825.14699999999993</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1722.1570000000002</v>
+      </c>
+      <c r="H13" s="26">
+        <v>825.87800000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>598.21600000000001</v>
+      </c>
+      <c r="B14" s="26">
+        <v>785.726</v>
+      </c>
+      <c r="C14" s="26">
+        <v>517.42800000000011</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26">
+        <v>996.91199999999992</v>
+      </c>
+      <c r="F14" s="26">
+        <v>754.97900000000004</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1122.4090000000001</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1098.5129999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>563.56799999999998</v>
+      </c>
+      <c r="B15" s="26">
+        <v>651.41100000000006</v>
+      </c>
+      <c r="C15" s="26">
+        <v>607.76599999999996</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26">
+        <v>938.25000000000011</v>
+      </c>
+      <c r="F15" s="26">
+        <v>1368.73</v>
+      </c>
+      <c r="G15" s="26">
+        <v>773.971</v>
+      </c>
+      <c r="H15" s="26">
+        <v>823.06400000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>1038.5849999999998</v>
+      </c>
+      <c r="B16" s="26">
+        <v>473.47300000000001</v>
+      </c>
+      <c r="C16" s="26">
+        <v>738.58400000000006</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26">
+        <v>1100.6220000000001</v>
+      </c>
+      <c r="F16" s="26">
+        <v>695.85199999999998</v>
+      </c>
+      <c r="G16" s="26">
+        <v>990.82900000000006</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1488.6509999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>983.13000000000011</v>
+      </c>
+      <c r="B17" s="26">
+        <v>746.88199999999995</v>
+      </c>
+      <c r="C17" s="26">
+        <v>913.26</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
+        <v>1067.6690000000001</v>
+      </c>
+      <c r="F17" s="26">
+        <v>607.72399999999993</v>
+      </c>
+      <c r="G17" s="26">
+        <v>677.27</v>
+      </c>
+      <c r="H17" s="26">
+        <v>962.18300000000011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>774.72299999999996</v>
+      </c>
+      <c r="B18" s="26">
+        <v>996.32299999999987</v>
+      </c>
+      <c r="C18" s="26">
+        <v>823.47300000000007</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26">
+        <v>858.57600000000002</v>
+      </c>
+      <c r="F18" s="26">
+        <v>545.16200000000003</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1532.9870000000001</v>
+      </c>
+      <c r="H18" s="26">
+        <v>998.13599999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>970.14600000000019</v>
+      </c>
+      <c r="B19" s="26">
+        <v>508.49</v>
+      </c>
+      <c r="C19" s="26">
+        <v>651.81399999999996</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26">
+        <v>668.75699999999995</v>
+      </c>
+      <c r="F19" s="26">
+        <v>986.76400000000001</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1426.075</v>
+      </c>
+      <c r="H19" s="26">
+        <v>556.07799999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>435.06900000000002</v>
+      </c>
+      <c r="B20" s="26">
+        <v>706.39599999999996</v>
+      </c>
+      <c r="C20" s="26">
+        <v>824.97099999999989</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26">
+        <v>772.01700000000005</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1365.2359999999999</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1080.086</v>
+      </c>
+      <c r="H20" s="26">
+        <v>744.78899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>467.19200000000001</v>
+      </c>
+      <c r="C21" s="26">
+        <v>554.98599999999999</v>
+      </c>
+      <c r="D21" s="26">
+        <v>316.89600000000002</v>
+      </c>
+      <c r="E21" s="26">
+        <v>835.74499999999989</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1843.85</v>
+      </c>
+      <c r="H21" s="26">
+        <v>1339.607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>449.452</v>
+      </c>
+      <c r="C22" s="26">
+        <v>860.09100000000001</v>
+      </c>
+      <c r="D22" s="26">
+        <v>155.678</v>
+      </c>
+      <c r="E22" s="26">
+        <v>462.42699999999996</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1580.96</v>
+      </c>
+      <c r="H22" s="26">
+        <v>1052.0840000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>433.93799999999999</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1117.558</v>
+      </c>
+      <c r="H23" s="26">
+        <v>1284.538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>664.71899999999994</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1378.2929999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>597.41800000000001</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1624.4289999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>676.33699999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
+        <v>419.089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A7D36-ED7F-4D16-9A7C-98262E1AE5BF}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>69.463999999999999</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
+        <v>62.405000000000001</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26">
+        <v>79.456000000000003</v>
+      </c>
+      <c r="F2" s="26">
+        <v>96.578000000000003</v>
+      </c>
+      <c r="G2" s="26">
+        <v>112.551</v>
+      </c>
+      <c r="H2" s="26">
+        <v>62.484999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="26">
+        <v>63.018000000000001</v>
+      </c>
+      <c r="C3" s="26">
+        <v>91.793000000000006</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26">
+        <v>74.45</v>
+      </c>
+      <c r="F3" s="26">
+        <v>92.853999999999999</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26">
+        <v>68.281000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>84.471000000000004</v>
+      </c>
+      <c r="B4" s="26">
+        <v>106.675</v>
+      </c>
+      <c r="C4" s="26">
+        <v>30.803000000000001</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26">
+        <v>74.506</v>
+      </c>
+      <c r="F4" s="26">
+        <v>70.069000000000003</v>
+      </c>
+      <c r="G4" s="26">
+        <v>80.512</v>
+      </c>
+      <c r="H4" s="26">
+        <v>118.471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>77.801000000000002</v>
+      </c>
+      <c r="B5" s="26">
+        <v>84.24</v>
+      </c>
+      <c r="C5" s="26">
+        <v>209.22200000000001</v>
+      </c>
+      <c r="D5" s="26">
+        <v>43.003999999999998</v>
+      </c>
+      <c r="E5" s="26">
+        <v>39.802999999999997</v>
+      </c>
+      <c r="F5" s="26">
+        <v>68.244</v>
+      </c>
+      <c r="G5" s="26">
+        <v>208.32499999999999</v>
+      </c>
+      <c r="H5" s="26">
+        <v>106.36199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>53.588999999999999</v>
+      </c>
+      <c r="B6" s="26">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="C6" s="26">
+        <v>43.234000000000002</v>
+      </c>
+      <c r="D6" s="26">
+        <v>56.279000000000003</v>
+      </c>
+      <c r="E6" s="26">
+        <v>115.056</v>
+      </c>
+      <c r="F6" s="26">
+        <v>112.54300000000001</v>
+      </c>
+      <c r="G6" s="26">
+        <v>99.75</v>
+      </c>
+      <c r="H6" s="26">
+        <v>111.098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>60.124000000000002</v>
+      </c>
+      <c r="B7" s="26">
+        <v>49.103000000000002</v>
+      </c>
+      <c r="C7" s="26">
+        <v>53.848999999999997</v>
+      </c>
+      <c r="D7" s="26">
+        <v>53.843000000000004</v>
+      </c>
+      <c r="E7" s="26">
+        <v>65.542000000000002</v>
+      </c>
+      <c r="F7" s="26">
+        <v>65.835999999999999</v>
+      </c>
+      <c r="G7" s="26">
+        <v>82.944999999999993</v>
+      </c>
+      <c r="H7" s="26">
+        <v>72.736000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>41.125</v>
+      </c>
+      <c r="B8" s="26">
+        <v>82.042000000000002</v>
+      </c>
+      <c r="C8" s="26">
+        <v>98.641000000000005</v>
+      </c>
+      <c r="D8" s="26">
+        <v>52.865000000000002</v>
+      </c>
+      <c r="E8" s="26">
+        <v>69.936999999999998</v>
+      </c>
+      <c r="F8" s="26">
+        <v>69.28</v>
+      </c>
+      <c r="G8" s="26">
+        <v>75.281999999999996</v>
+      </c>
+      <c r="H8" s="26">
+        <v>87.313999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>43.988</v>
+      </c>
+      <c r="B9" s="26">
+        <v>73.400999999999996</v>
+      </c>
+      <c r="C9" s="26">
+        <v>48.256999999999998</v>
+      </c>
+      <c r="D9" s="26">
+        <v>121.587</v>
+      </c>
+      <c r="E9" s="26">
+        <v>167.506</v>
+      </c>
+      <c r="F9" s="26">
+        <v>64.244</v>
+      </c>
+      <c r="G9" s="26">
+        <v>91.019000000000005</v>
+      </c>
+      <c r="H9" s="26">
+        <v>66.948999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>71.281999999999996</v>
+      </c>
+      <c r="B10" s="26">
+        <v>65.917000000000002</v>
+      </c>
+      <c r="C10" s="26">
+        <v>73.311000000000007</v>
+      </c>
+      <c r="D10" s="26">
+        <v>43.988</v>
+      </c>
+      <c r="E10" s="26">
+        <v>79.686000000000007</v>
+      </c>
+      <c r="F10" s="26">
+        <v>80.051000000000002</v>
+      </c>
+      <c r="G10" s="26">
+        <v>71.019000000000005</v>
+      </c>
+      <c r="H10" s="26">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>54.752000000000002</v>
+      </c>
+      <c r="B11" s="26">
+        <v>55.408999999999999</v>
+      </c>
+      <c r="C11" s="26">
+        <v>8.2029999999999994</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26">
+        <v>66.899000000000001</v>
+      </c>
+      <c r="F11" s="26">
+        <v>57.335999999999999</v>
+      </c>
+      <c r="G11" s="26">
+        <v>96.105000000000004</v>
+      </c>
+      <c r="H11" s="26">
+        <v>68.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>65.539000000000001</v>
+      </c>
+      <c r="B12" s="26">
+        <v>66.125</v>
+      </c>
+      <c r="C12" s="26">
+        <v>30.649000000000001</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26">
+        <v>74.81</v>
+      </c>
+      <c r="F12" s="26">
+        <v>96.441000000000003</v>
+      </c>
+      <c r="G12" s="26">
+        <v>112.74299999999999</v>
+      </c>
+      <c r="H12" s="26">
+        <v>74.808000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>66.134</v>
+      </c>
+      <c r="B13" s="26">
+        <v>934.36900000000003</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26">
+        <v>9.6010000000000009</v>
+      </c>
+      <c r="E13" s="26">
+        <v>78.17</v>
+      </c>
+      <c r="F13" s="26">
+        <v>66.028999999999996</v>
+      </c>
+      <c r="G13" s="26">
+        <v>82.754999999999995</v>
+      </c>
+      <c r="H13" s="26">
+        <v>92.891999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>53.482999999999997</v>
+      </c>
+      <c r="B14" s="26">
+        <v>62.213000000000001</v>
+      </c>
+      <c r="C14" s="26">
+        <v>36.573</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26">
+        <v>90.319000000000003</v>
+      </c>
+      <c r="F14" s="26">
+        <v>58.067999999999998</v>
+      </c>
+      <c r="G14" s="26">
+        <v>89.832999999999998</v>
+      </c>
+      <c r="H14" s="26">
+        <v>18.373000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>326.654</v>
+      </c>
+      <c r="B15" s="26">
+        <v>360.20600000000002</v>
+      </c>
+      <c r="C15" s="26">
+        <v>49.362000000000002</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26">
+        <v>65.412000000000006</v>
+      </c>
+      <c r="F15" s="26">
+        <v>89.393000000000001</v>
+      </c>
+      <c r="G15" s="26">
+        <v>83.366</v>
+      </c>
+      <c r="H15" s="26">
+        <v>74.117999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>82.88</v>
+      </c>
+      <c r="B16" s="26">
+        <v>79.347999999999999</v>
+      </c>
+      <c r="C16" s="26">
+        <v>55.13</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26">
+        <v>100.547</v>
+      </c>
+      <c r="F16" s="26">
+        <v>90.441000000000003</v>
+      </c>
+      <c r="G16" s="26">
+        <v>82.019000000000005</v>
+      </c>
+      <c r="H16" s="26">
+        <v>80.394999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>60.423999999999999</v>
+      </c>
+      <c r="B17" s="26">
+        <v>62.633000000000003</v>
+      </c>
+      <c r="C17" s="26">
+        <v>62.146999999999998</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
+        <v>99.236999999999995</v>
+      </c>
+      <c r="F17" s="26">
+        <v>54.128999999999998</v>
+      </c>
+      <c r="G17" s="26">
+        <v>79.543999999999997</v>
+      </c>
+      <c r="H17" s="26">
+        <v>99.972999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>81.581000000000003</v>
+      </c>
+      <c r="B18" s="26">
+        <v>111.252</v>
+      </c>
+      <c r="C18" s="26">
+        <v>64.772000000000006</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26">
+        <v>59.609000000000002</v>
+      </c>
+      <c r="F18" s="26">
+        <v>13.186999999999999</v>
+      </c>
+      <c r="G18" s="26">
+        <v>96.596999999999994</v>
+      </c>
+      <c r="H18" s="26">
+        <v>78.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>89.808000000000007</v>
+      </c>
+      <c r="B19" s="26">
+        <v>57.249000000000002</v>
+      </c>
+      <c r="C19" s="26">
+        <v>62.343000000000004</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26">
+        <v>63.066000000000003</v>
+      </c>
+      <c r="F19" s="26">
+        <v>64.123000000000005</v>
+      </c>
+      <c r="G19" s="26">
+        <v>104.23099999999999</v>
+      </c>
+      <c r="H19" s="26">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>49.725000000000001</v>
+      </c>
+      <c r="B20" s="26">
+        <v>40.491</v>
+      </c>
+      <c r="C20" s="26">
+        <v>155.161</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26">
+        <v>68.974000000000004</v>
+      </c>
+      <c r="F20" s="26">
+        <v>109.461</v>
+      </c>
+      <c r="G20" s="26">
+        <v>95.319000000000003</v>
+      </c>
+      <c r="H20" s="26">
+        <v>53.497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>45.709000000000003</v>
+      </c>
+      <c r="C21" s="26">
+        <v>54.488</v>
+      </c>
+      <c r="D21" s="26">
+        <v>30.768000000000001</v>
+      </c>
+      <c r="E21" s="26">
+        <v>62.38</v>
+      </c>
+      <c r="G21" s="26">
+        <v>108.04900000000001</v>
+      </c>
+      <c r="H21" s="26">
+        <v>101.462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>52.959000000000003</v>
+      </c>
+      <c r="C22" s="26">
+        <v>60.161999999999999</v>
+      </c>
+      <c r="D22" s="26">
+        <v>6.0620000000000003</v>
+      </c>
+      <c r="E22" s="26">
+        <v>61.338000000000001</v>
+      </c>
+      <c r="G22" s="26">
+        <v>86.364999999999995</v>
+      </c>
+      <c r="H22" s="26">
+        <v>81.028999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>45.195999999999998</v>
+      </c>
+      <c r="G23" s="26">
+        <v>64.876000000000005</v>
+      </c>
+      <c r="H23" s="26">
+        <v>86.418999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>76.247</v>
+      </c>
+      <c r="H24" s="26">
+        <v>107.764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>59.741999999999997</v>
+      </c>
+      <c r="H25" s="26">
+        <v>100.753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>84.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
+        <v>41.697000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -9299,18 +11021,18 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9320,34 +11042,34 @@
       <c r="C1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="22" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="23"/>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="24"/>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
@@ -9360,9 +11082,9 @@
       <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9390,7 +11112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9418,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9446,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9472,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9500,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -9528,7 +11250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -9556,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -9584,7 +11306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -9612,7 +11334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -9638,7 +11360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9666,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9694,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9722,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -9750,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>

--- a/3D_Morphometry.xlsx
+++ b/3D_Morphometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Quantification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D1752-8EF5-438D-997D-55EBDC1D40FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA945C-7AAB-49ED-8A08-413FF0E68D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="4335" windowWidth="20910" windowHeight="11835" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2730" windowWidth="20910" windowHeight="11835" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl_Sphericity" sheetId="3" r:id="rId1"/>
@@ -23,60 +23,60 @@
     <sheet name="Imaris" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Chl_Sphericity!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Chl_Sphericity!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Chl_Sphericity!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Chl_Sphericity!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Chl_Sphericity!$G$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Chl_Sphericity!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Chl_Sphericity!$H$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Chl_Sphericity!$H$2:$H$61</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Chl_Volume!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Chl_Volume!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Chl_Volume!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Chl_Volume!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Chl_Sphericity!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Chl_Volume!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Chl_Volume!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Chl_Volume!$D$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Chl_Volume!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Chl_Volume!$E$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Chl_Volume!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Chl_Volume!$F$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Chl_Volume!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Chl_Volume!$G$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Chl_Volume!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Chl_Sphericity!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Chl_Volume!$H$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Chl_Volume!$H$2:$H$61</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Nuc_Volume!$A$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Nuc_Volume!$A$2:$A$61</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Nuc_Volume!$B$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Nuc_Volume!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Nuc_Volume!$C$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Nuc_Volume!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Nuc_Volume!$D$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Nuc_Volume!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Chl_Sphericity!$C$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Nuc_Volume!$E$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Nuc_Volume!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Nuc_Volume!$F$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Nuc_Volume!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Nuc_Volume!$G$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Nuc_Volume!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Nuc_Volume!$H$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Nuc_Volume!$H$2:$H$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Nuc_Volume!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Nuc_Volume!$A$2:$A$61</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Nuc_Volume!$F$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Nuc_Volume!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Nuc_Volume!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Nuc_Volume!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Nuc_Volume!$H$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Nuc_Volume!$H$2:$H$61</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Chl_Sphericity!$A$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Chl_Sphericity!$A$2:$A$61</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Chl_Sphericity!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Chl_Sphericity!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Nuc_Volume!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Chl_Sphericity!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Chl_Sphericity!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Chl_Sphericity!$D$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Chl_Sphericity!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Chl_Sphericity!$E$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Chl_Sphericity!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Chl_Sphericity!$F$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Chl_Sphericity!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Chl_Sphericity!$G$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Chl_Sphericity!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Nuc_Volume!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Chl_Sphericity!$H$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Chl_Sphericity!$H$2:$H$61</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Chl_Volume!$A$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Chl_Volume!$A$2:$A$61</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Chl_Volume!$B$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Chl_Volume!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Chl_Volume!$C$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Chl_Volume!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Chl_Volume!$D$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Chl_Volume!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Nuc_Volume!$C$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Chl_Volume!$E$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Chl_Volume!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Chl_Volume!$F$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Chl_Volume!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Chl_Volume!$G$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Chl_Volume!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Chl_Volume!$H$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Chl_Volume!$H$2:$H$61</definedName>
     <definedName name="_xlchart.v1.48" hidden="1">Imaris!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Imaris!$E$4:$E$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Chl_Sphericity!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Imaris!$G$4:$G$18</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Nuc_Volume!$C$2:$C$61</definedName>
     <definedName name="_xlchart.v1.50" hidden="1">Imaris!$A$4:$A$18</definedName>
     <definedName name="_xlchart.v1.51" hidden="1">Imaris!$C$4:$C$18</definedName>
     <definedName name="_xlchart.v1.52" hidden="1">Imaris!$A$4:$A$18</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Imaris!$G$4:$G$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Chl_Sphericity!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Chl_Sphericity!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Chl_Sphericity!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Chl_Sphericity!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Imaris!$E$4:$E$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Nuc_Volume!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Nuc_Volume!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Nuc_Volume!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Nuc_Volume!$E$2:$E$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -440,6 +440,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,7 +453,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -483,42 +483,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -556,7 +556,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C77844D3-CA42-4C56-9BB1-3FFAE8BD6832}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>0h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -569,7 +569,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{010974C5-6C5B-4409-AA4A-8D25F8E49581}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>20h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -582,7 +582,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D1E0F09A-21EE-4024-8C22-67E25C7C7D29}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>26h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -595,7 +595,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EF126365-EEA3-4F4D-BFCE-A041F17ABFEE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>44h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -608,7 +608,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D066C3E4-EBD3-4F04-8664-AAC9DC2CB140}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>50h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -621,7 +621,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F7B44B01-F5B3-4268-A1EB-2738F8F54097}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>68h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -634,7 +634,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2682DFB7-A0E7-4B32-A039-27C89E286BDD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>74h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -647,7 +647,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{456A2FD6-55F6-4840-9F53-64DC394F508B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>92h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -733,200 +733,6 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="7">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Chloroplast Volume</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Chloroplast Volume</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{901AE444-0F55-442F-87B8-A254C1445578}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>0h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{168065EA-D862-47DF-9DAD-368F52631DFF}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>20h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{24638213-4C37-4307-ADC9-2C8338E04922}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
-              <cx:v>26h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{7ACEAD35-469D-4D93-A68D-63D6DEA0AF4B}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
-              <cx:v>44h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5C11ED83-2E68-4664-B4F8-AFDFF5E3AE14}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
-              <cx:v>50h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{12B846C7-4554-4419-B9D5-C8BC979600C5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
-              <cx:v>68h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="5"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4B0C7232-65FE-4966-A56D-7C630B03711F}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
-              <cx:v>74h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="6"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4CA7DB82-85CF-4A59-B4C0-F88371A12C93}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
-              <cx:v>92h</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="7"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="2000"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
         <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
@@ -970,6 +776,200 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
+          <cx:v>Chloroplast Volume</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Chloroplast Volume</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{901AE444-0F55-442F-87B8-A254C1445578}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>0h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{168065EA-D862-47DF-9DAD-368F52631DFF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>20h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{24638213-4C37-4307-ADC9-2C8338E04922}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>26h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7ACEAD35-469D-4D93-A68D-63D6DEA0AF4B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>44h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5C11ED83-2E68-4664-B4F8-AFDFF5E3AE14}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>50h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{12B846C7-4554-4419-B9D5-C8BC979600C5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:v>68h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4B0C7232-65FE-4966-A56D-7C630B03711F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:v>74h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4CA7DB82-85CF-4A59-B4C0-F88371A12C93}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:v>92h</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="7"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="2000"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
           <cx:v>Nuclei Volume</cx:v>
         </cx:txData>
       </cx:tx>
@@ -1000,7 +1000,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E616DDC2-13EC-4674-B46E-69B232CC8714}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>0h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1013,7 +1013,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{75E45D5B-B7B7-48BA-99FD-A4455D079D65}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>20h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1026,7 +1026,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FB468DC5-EC7F-412E-B2D0-CFFA1BAF1ED3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>26h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1039,7 +1039,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1F4B261A-4E62-424C-94B1-E74907A0FE7C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>44h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1052,7 +1052,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7D6CBB73-0E67-4880-A9C9-BA245A878396}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>50h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1065,7 +1065,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{85BE3464-5DB7-4E0F-B927-19B2EDA74A39}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>68h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1078,7 +1078,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FA8A4AB3-A5D1-4A73-B55C-EFEB06DBDA73}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>74h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1091,7 +1091,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5086587A-9845-4F72-8D84-CD2322F91A09}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>92h</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1121,10 +1121,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1205,10 +1205,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.48</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9303,43 +9303,43 @@
       <c r="A2" s="17">
         <v>0.37599999999999995</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>0.442</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="22">
         <v>0.45680000000000004</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22">
         <v>0.28033333333333338</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="22">
         <v>0.36966666666666664</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="22">
         <v>0.39980000000000004</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="22">
         <v>0.34425</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>0.33185714285714285</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>0.32750000000000001</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22">
         <v>0.41180000000000005</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="22">
         <v>0.25700000000000001</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22">
         <v>0.32800000000000001</v>
       </c>
     </row>
@@ -9347,23 +9347,23 @@
       <c r="A4" s="17">
         <v>0.30060000000000003</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>0.30333333333333334</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22">
         <v>0.34800000000000003</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>0.38666666666666666</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>0.185</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>0.37625000000000003</v>
       </c>
     </row>
@@ -9371,25 +9371,25 @@
       <c r="A5" s="17">
         <v>0.32750000000000001</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>0.42871428571428577</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>0.38224999999999998</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>0.26333333333333336</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <v>0.3478</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="22">
         <v>0.36759999999999998</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="22">
         <v>0.41333333333333339</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="22">
         <v>0.2475</v>
       </c>
     </row>
@@ -9397,25 +9397,25 @@
       <c r="A6" s="17">
         <v>0.35060000000000002</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>0.40339999999999998</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>0.37849999999999995</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>0.36483333333333334</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>0.35533333333333333</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <v>0.21500000000000002</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>0.33916666666666667</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>0.37019999999999997</v>
       </c>
     </row>
@@ -9423,25 +9423,25 @@
       <c r="A7" s="17">
         <v>0.34225</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>0.40020000000000006</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>0.34150000000000003</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>0.36</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <v>0.35966666666666663</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="22">
         <v>0.35020000000000001</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>0.32533333333333331</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>0.28899999999999998</v>
       </c>
     </row>
@@ -9449,25 +9449,25 @@
       <c r="A8" s="17">
         <v>0.33550000000000002</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>0.29360000000000003</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>0.39199999999999996</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>0.29933333333333328</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="22">
         <v>0.46479999999999999</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <v>0.19700000000000001</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>0.36733333333333329</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>0.32866666666666666</v>
       </c>
     </row>
@@ -9475,25 +9475,25 @@
       <c r="A9" s="17">
         <v>0.40024999999999999</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>0.37557142857142856</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>0.37440000000000001</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>0.28900000000000003</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>0.33479999999999999</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="22">
         <v>0.39425000000000004</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="22">
         <v>0.217</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="22">
         <v>0.28500000000000003</v>
       </c>
     </row>
@@ -9501,25 +9501,25 @@
       <c r="A10" s="17">
         <v>0.38979999999999998</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>0.41325000000000001</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>0.41271428571428576</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>0.42657142857142855</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <v>0.27399999999999997</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <v>0.3136666666666667</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>0.35049999999999998</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>0.49625000000000008</v>
       </c>
     </row>
@@ -9527,23 +9527,23 @@
       <c r="A11" s="17">
         <v>0.26450000000000001</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>0.40520000000000006</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>0.48100000000000004</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
         <v>0.37319999999999998</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="22">
         <v>0.28166666666666668</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <v>0.32728571428571435</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <v>0.37516666666666665</v>
       </c>
     </row>
@@ -9551,23 +9551,23 @@
       <c r="A12" s="17">
         <v>0.3518</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>0.34516666666666662</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>0.35275000000000001</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
         <v>0.34133333333333332</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <v>0.26866666666666666</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>0.31320000000000003</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -9575,25 +9575,25 @@
       <c r="A13" s="17">
         <v>0.38300000000000001</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>0.16700000000000001</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>0.42049999999999998</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>0.29183333333333333</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>0.29574999999999996</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="22">
         <v>0.38849999999999996</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>0.30133333333333334</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>0.311</v>
       </c>
     </row>
@@ -9601,23 +9601,23 @@
       <c r="A14" s="17">
         <v>0.30625000000000002</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="22">
         <v>0.27</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>0.38075000000000003</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="22">
         <v>0.308</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="22">
         <v>0.34975000000000001</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="22">
         <v>0.43925000000000003</v>
       </c>
     </row>
@@ -9625,23 +9625,23 @@
       <c r="A15" s="17">
         <v>0.29600000000000004</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>0.27400000000000002</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="22">
         <v>0.41450000000000004</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22">
         <v>0.33899999999999997</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="22">
         <v>0.32871428571428574</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="22">
         <v>0.37474999999999997</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="22">
         <v>0.33849999999999997</v>
       </c>
     </row>
@@ -9649,23 +9649,23 @@
       <c r="A16" s="17">
         <v>0.34750000000000003</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>0.36783333333333329</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="22">
         <v>0.40833333333333338</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22">
         <v>0.36249999999999999</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="22">
         <v>0.30149999999999999</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <v>0.3816666666666666</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>0.36225000000000002</v>
       </c>
     </row>
@@ -9673,23 +9673,23 @@
       <c r="A17" s="17">
         <v>0.316</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>0.31219999999999998</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <v>0.34975000000000001</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22">
         <v>0.31233333333333335</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <v>0.41225000000000001</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="22">
         <v>0.34160000000000001</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="22">
         <v>0.37929999999999997</v>
       </c>
     </row>
@@ -9697,23 +9697,23 @@
       <c r="A18" s="17">
         <v>0.3105</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="22">
         <v>0.35487500000000005</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>0.41299999999999998</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22">
         <v>0.35550000000000004</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="22">
         <v>0.46900000000000003</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="22">
         <v>0.38920000000000005</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="22">
         <v>0.39425000000000004</v>
       </c>
     </row>
@@ -9721,23 +9721,23 @@
       <c r="A19" s="17">
         <v>0.39366666666666666</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>0.35924999999999996</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>0.31824999999999998</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
         <v>0.39774999999999999</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="22">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>0.42275000000000001</v>
       </c>
     </row>
@@ -9745,100 +9745,100 @@
       <c r="A20" s="17">
         <v>0.35499999999999998</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="22">
         <v>0.32966666666666666</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="22">
         <v>0.41514285714285715</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22">
         <v>0.42200000000000004</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <v>0.39980000000000004</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="22">
         <v>0.41114285714285714</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="22">
         <v>0.39199999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
+      <c r="B21" s="22">
         <v>0.39799999999999996</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="22">
         <v>0.39859999999999995</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="22">
         <v>0.14699999999999999</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="22">
         <v>0.35799999999999998</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="22">
         <v>0.376</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="22">
         <v>0.38299999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <v>0.40399999999999997</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="22">
         <v>0.33440000000000003</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="22">
         <v>0.35175000000000001</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <v>0.38950000000000001</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="22">
         <v>0.2475</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <v>0.32733333333333331</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="22">
         <v>0.26450000000000001</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="22">
         <v>0.30249999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <v>0.31379999999999997</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="22">
         <v>0.39433333333333342</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <v>0.31459999999999999</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="22">
         <v>0.3765</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <v>0.34328571428571431</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
+      <c r="B27" s="22">
         <v>0.42</v>
       </c>
     </row>
@@ -9851,8 +9851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB3D12-36E3-42CD-8EAE-CFE1BE8C67FE}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9887,43 +9887,43 @@
       <c r="A2" s="17">
         <v>671.9</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>121.239</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="22">
         <v>709.53500000000008</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22">
         <v>1324.8400000000001</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="22">
         <v>970.01</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="22">
         <v>1365.2359999999999</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="22">
         <v>1230.5719999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>695.83499999999992</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>1084.6390000000001</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22">
         <v>642.93200000000002</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="22">
         <v>1177.355</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22">
         <v>828.99599999999998</v>
       </c>
     </row>
@@ -9931,23 +9931,23 @@
       <c r="A4" s="17">
         <v>1100.1220000000001</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>745.53300000000002</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>1265.02</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22">
         <v>1061.192</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>892.94900000000007</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>876.10400000000004</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>1826.0920000000001</v>
       </c>
     </row>
@@ -9955,25 +9955,25 @@
       <c r="A5" s="17">
         <v>1093.317</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>613.62699999999995</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>635.10500000000002</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>994.17700000000002</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <v>601.61400000000003</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="22">
         <v>625.02099999999996</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="22">
         <v>1006.604</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="22">
         <v>1486.4690000000001</v>
       </c>
     </row>
@@ -9981,25 +9981,25 @@
       <c r="A6" s="17">
         <v>466.14500000000004</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>594.97699999999998</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>603.54999999999995</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>492.63600000000002</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>741.94900000000007</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <v>1018.8990000000001</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>1228.6400000000001</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>2099.4780000000001</v>
       </c>
     </row>
@@ -10007,25 +10007,25 @@
       <c r="A7" s="17">
         <v>570.4559999999999</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>643.80700000000002</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>745.47</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>455.62099999999998</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <v>886.83400000000006</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="22">
         <v>593.87</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>1062.616</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>1158.7760000000001</v>
       </c>
     </row>
@@ -10033,25 +10033,25 @@
       <c r="A8" s="17">
         <v>301.74400000000003</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>818.73500000000001</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>719.59299999999996</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>477.80799999999999</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="22">
         <v>537.44499999999994</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <v>1094.748</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>908.31200000000001</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>1426.6609999999998</v>
       </c>
     </row>
@@ -10059,25 +10059,25 @@
       <c r="A9" s="17">
         <v>359.33800000000002</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>638.89300000000003</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>604.99900000000002</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>531.69900000000007</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>498.28900000000004</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="22">
         <v>543.59100000000001</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="22">
         <v>845.50699999999995</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="22">
         <v>1054.806</v>
       </c>
     </row>
@@ -10085,25 +10085,25 @@
       <c r="A10" s="17">
         <v>651.62400000000002</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>304.14800000000002</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>968.92400000000009</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>347.35199999999998</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <v>961.78000000000009</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <v>848.78700000000003</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>1368.203</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>362.06200000000001</v>
       </c>
     </row>
@@ -10111,23 +10111,23 @@
       <c r="A11" s="17">
         <v>632.12900000000002</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>707.29399999999998</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>293.06700000000001</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
         <v>557.33299999999997</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="22">
         <v>723.48699999999997</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <v>1454.2900000000002</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <v>673.279</v>
       </c>
     </row>
@@ -10135,23 +10135,23 @@
       <c r="A12" s="17">
         <v>722.56599999999992</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>522.76800000000003</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>566.60299999999995</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
         <v>570.87599999999998</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <v>1322.7370000000001</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>825.80099999999993</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>1071.8620000000001</v>
       </c>
     </row>
@@ -10159,25 +10159,23 @@
       <c r="A13" s="17">
         <v>719.95400000000006</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>951.29499999999996</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>683.26400000000001</v>
       </c>
-      <c r="D13" s="26">
-        <v>303.39</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
         <v>1090.277</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="22">
         <v>825.14699999999993</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>1722.1570000000002</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>825.87800000000004</v>
       </c>
     </row>
@@ -10185,23 +10183,23 @@
       <c r="A14" s="17">
         <v>598.21600000000001</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="22">
         <v>785.726</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>517.42800000000011</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
         <v>996.91199999999992</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="22">
         <v>754.97900000000004</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="22">
         <v>1122.4090000000001</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="22">
         <v>1098.5129999999999</v>
       </c>
     </row>
@@ -10209,23 +10207,23 @@
       <c r="A15" s="17">
         <v>563.56799999999998</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>651.41100000000006</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="22">
         <v>607.76599999999996</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22">
         <v>938.25000000000011</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="22">
         <v>1368.73</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="22">
         <v>773.971</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="22">
         <v>823.06400000000008</v>
       </c>
     </row>
@@ -10233,23 +10231,23 @@
       <c r="A16" s="17">
         <v>1038.5849999999998</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>473.47300000000001</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="22">
         <v>738.58400000000006</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22">
         <v>1100.6220000000001</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="22">
         <v>695.85199999999998</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <v>990.82900000000006</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>1488.6509999999998</v>
       </c>
     </row>
@@ -10257,23 +10255,23 @@
       <c r="A17" s="17">
         <v>983.13000000000011</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>746.88199999999995</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <v>913.26</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22">
         <v>1067.6690000000001</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <v>607.72399999999993</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="22">
         <v>677.27</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="22">
         <v>962.18300000000011</v>
       </c>
     </row>
@@ -10281,23 +10279,23 @@
       <c r="A18" s="17">
         <v>774.72299999999996</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="22">
         <v>996.32299999999987</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>823.47300000000007</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22">
         <v>858.57600000000002</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="22">
         <v>545.16200000000003</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="22">
         <v>1532.9870000000001</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="22">
         <v>998.13599999999997</v>
       </c>
     </row>
@@ -10305,23 +10303,23 @@
       <c r="A19" s="17">
         <v>970.14600000000019</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>508.49</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>651.81399999999996</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
         <v>668.75699999999995</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="22">
         <v>986.76400000000001</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>1426.075</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>556.07799999999997</v>
       </c>
     </row>
@@ -10329,100 +10327,96 @@
       <c r="A20" s="17">
         <v>435.06900000000002</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="22">
         <v>706.39599999999996</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="22">
         <v>824.97099999999989</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22">
         <v>772.01700000000005</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <v>1365.2359999999999</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="22">
         <v>1080.086</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="22">
         <v>744.78899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
+      <c r="B21" s="22">
         <v>467.19200000000001</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="22">
         <v>554.98599999999999</v>
       </c>
-      <c r="D21" s="26">
-        <v>316.89600000000002</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22">
         <v>835.74499999999989</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="22">
         <v>1843.85</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="22">
         <v>1339.607</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <v>449.452</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="22">
         <v>860.09100000000001</v>
       </c>
-      <c r="D22" s="26">
-        <v>155.678</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22">
         <v>462.42699999999996</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <v>1580.96</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="22">
         <v>1052.0840000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <v>433.93799999999999</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="22">
         <v>1117.558</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="22">
         <v>1284.538</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <v>664.71899999999994</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="22">
         <v>1378.2929999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <v>597.41800000000001</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="22">
         <v>1624.4289999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <v>676.33699999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
+      <c r="B27" s="22">
         <v>419.089</v>
       </c>
     </row>
@@ -10435,8 +10429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A7D36-ED7F-4D16-9A7C-98262E1AE5BF}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10471,43 +10465,43 @@
       <c r="A2" s="17">
         <v>69.463999999999999</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>0</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="22">
         <v>62.405000000000001</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22">
         <v>79.456000000000003</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="22">
         <v>96.578000000000003</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="22">
         <v>112.551</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="22">
         <v>62.484999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>63.018000000000001</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>91.793000000000006</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22">
         <v>74.45</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="22">
         <v>92.853999999999999</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22">
         <v>68.281000000000006</v>
       </c>
     </row>
@@ -10515,23 +10509,23 @@
       <c r="A4" s="17">
         <v>84.471000000000004</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>106.675</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>30.803000000000001</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22">
         <v>74.506</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>70.069000000000003</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>80.512</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>118.471</v>
       </c>
     </row>
@@ -10539,25 +10533,25 @@
       <c r="A5" s="17">
         <v>77.801000000000002</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>84.24</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>209.22200000000001</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>43.003999999999998</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <v>39.802999999999997</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="22">
         <v>68.244</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="22">
         <v>208.32499999999999</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="22">
         <v>106.36199999999999</v>
       </c>
     </row>
@@ -10565,25 +10559,25 @@
       <c r="A6" s="17">
         <v>53.588999999999999</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>70.400000000000006</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>43.234000000000002</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>56.279000000000003</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>115.056</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <v>112.54300000000001</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>99.75</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>111.098</v>
       </c>
     </row>
@@ -10591,25 +10585,25 @@
       <c r="A7" s="17">
         <v>60.124000000000002</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>49.103000000000002</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>53.848999999999997</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>53.843000000000004</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <v>65.542000000000002</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="22">
         <v>65.835999999999999</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>82.944999999999993</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>72.736000000000004</v>
       </c>
     </row>
@@ -10617,25 +10611,25 @@
       <c r="A8" s="17">
         <v>41.125</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>82.042000000000002</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>98.641000000000005</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>52.865000000000002</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="22">
         <v>69.936999999999998</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <v>69.28</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>75.281999999999996</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>87.313999999999993</v>
       </c>
     </row>
@@ -10643,25 +10637,25 @@
       <c r="A9" s="17">
         <v>43.988</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>73.400999999999996</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>48.256999999999998</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>121.587</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>167.506</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="22">
         <v>64.244</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="22">
         <v>91.019000000000005</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="22">
         <v>66.948999999999998</v>
       </c>
     </row>
@@ -10669,25 +10663,25 @@
       <c r="A10" s="17">
         <v>71.281999999999996</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>65.917000000000002</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>73.311000000000007</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>43.988</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <v>79.686000000000007</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <v>80.051000000000002</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>71.019000000000005</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>6.66</v>
       </c>
     </row>
@@ -10695,23 +10689,23 @@
       <c r="A11" s="17">
         <v>54.752000000000002</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>55.408999999999999</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>8.2029999999999994</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
         <v>66.899000000000001</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="22">
         <v>57.335999999999999</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <v>96.105000000000004</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <v>68.97</v>
       </c>
     </row>
@@ -10719,23 +10713,23 @@
       <c r="A12" s="17">
         <v>65.539000000000001</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>66.125</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>30.649000000000001</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
         <v>74.81</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <v>96.441000000000003</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>112.74299999999999</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>74.808000000000007</v>
       </c>
     </row>
@@ -10743,23 +10737,21 @@
       <c r="A13" s="17">
         <v>66.134</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>934.36900000000003</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26">
-        <v>9.6010000000000009</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
         <v>78.17</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="22">
         <v>66.028999999999996</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>82.754999999999995</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>92.891999999999996</v>
       </c>
     </row>
@@ -10767,23 +10759,23 @@
       <c r="A14" s="17">
         <v>53.482999999999997</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="22">
         <v>62.213000000000001</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>36.573</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
         <v>90.319000000000003</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="22">
         <v>58.067999999999998</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="22">
         <v>89.832999999999998</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="22">
         <v>18.373000000000001</v>
       </c>
     </row>
@@ -10791,23 +10783,23 @@
       <c r="A15" s="17">
         <v>326.654</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>360.20600000000002</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="22">
         <v>49.362000000000002</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22">
         <v>65.412000000000006</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="22">
         <v>89.393000000000001</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="22">
         <v>83.366</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="22">
         <v>74.117999999999995</v>
       </c>
     </row>
@@ -10815,23 +10807,23 @@
       <c r="A16" s="17">
         <v>82.88</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>79.347999999999999</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="22">
         <v>55.13</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22">
         <v>100.547</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="22">
         <v>90.441000000000003</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <v>82.019000000000005</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>80.394999999999996</v>
       </c>
     </row>
@@ -10839,23 +10831,23 @@
       <c r="A17" s="17">
         <v>60.423999999999999</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>62.633000000000003</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <v>62.146999999999998</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22">
         <v>99.236999999999995</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <v>54.128999999999998</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="22">
         <v>79.543999999999997</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="22">
         <v>99.972999999999999</v>
       </c>
     </row>
@@ -10863,23 +10855,23 @@
       <c r="A18" s="17">
         <v>81.581000000000003</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="22">
         <v>111.252</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>64.772000000000006</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22">
         <v>59.609000000000002</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="22">
         <v>13.186999999999999</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="22">
         <v>96.596999999999994</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="22">
         <v>78.28</v>
       </c>
     </row>
@@ -10887,23 +10879,23 @@
       <c r="A19" s="17">
         <v>89.808000000000007</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>57.249000000000002</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>62.343000000000004</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
         <v>63.066000000000003</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="22">
         <v>64.123000000000005</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>104.23099999999999</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>74.3</v>
       </c>
     </row>
@@ -10911,100 +10903,96 @@
       <c r="A20" s="17">
         <v>49.725000000000001</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="22">
         <v>40.491</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="22">
         <v>155.161</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22">
         <v>68.974000000000004</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <v>109.461</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="22">
         <v>95.319000000000003</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="22">
         <v>53.497</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
+      <c r="B21" s="22">
         <v>45.709000000000003</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="22">
         <v>54.488</v>
       </c>
-      <c r="D21" s="26">
-        <v>30.768000000000001</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22">
         <v>62.38</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="22">
         <v>108.04900000000001</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="22">
         <v>101.462</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <v>52.959000000000003</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="22">
         <v>60.161999999999999</v>
       </c>
-      <c r="D22" s="26">
-        <v>6.0620000000000003</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22">
         <v>61.338000000000001</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <v>86.364999999999995</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="22">
         <v>81.028999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <v>45.195999999999998</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="22">
         <v>64.876000000000005</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="22">
         <v>86.418999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <v>76.247</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="22">
         <v>107.764</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <v>59.741999999999997</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="22">
         <v>100.753</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <v>84.35</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
+      <c r="B27" s="22">
         <v>41.697000000000003</v>
       </c>
     </row>
@@ -11042,34 +11030,34 @@
       <c r="C1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
@@ -11082,7 +11070,7 @@
       <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
